--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/10/seed1/result_data_KNN.xlsx
@@ -496,19 +496,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.976</v>
+        <v>-21.948</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.632</v>
+        <v>-12.78</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.768</v>
+        <v>12.938</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.172</v>
+        <v>-12.413</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.534</v>
+        <v>-20.987</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.276</v>
+        <v>-12.34</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.832</v>
+        <v>13.021</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.078</v>
+        <v>-21.355</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.276</v>
+        <v>-12.346</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.76</v>
+        <v>13.268</v>
       </c>
     </row>
     <row r="19">
